--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>ROTEIRO 2 - ECG 2024.2 (respostas).xlsx_pontuacao</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>nome</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -516,6 +521,11 @@
           <t>['']</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['', 'ANA CRISLEY FERNANDES DE LACERDA']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -558,6 +568,11 @@
           <t>['']</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['', 'NYKOLAS ALBERTO ESTRELLA PACHECO FREIRE']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -600,6 +615,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['', 'GABRIEL MONTEIRO', 'GABRIEL MONTEIRO DE VILHENA']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -642,6 +662,11 @@
           <t>['9']</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['CARLA WERUSKA DE L CANGELLO RAPOSO', 'CARLA W DE L C RAPOSO', 'CARLA WERUSKA DE L C RAPOSO']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -684,6 +709,11 @@
           <t>['10', '10']</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['PEDRO HENRIQUE DANTAS GONCALVES']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -726,6 +756,11 @@
           <t>['']</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['', 'SANDRA PEREIRA DE LIRA']</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -768,6 +803,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['YOHANNA CAVALCANTE REBOUCAS']</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -810,6 +850,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['YASMIN GUEDES BEZERRA']</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -852,6 +897,11 @@
           <t>['']</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['', 'MARCELA GISELLE SOARES DE AGUIAR']</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -894,6 +944,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['', 'JONATAS CARLOS MARTINS DE SOUZA']</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -936,6 +991,11 @@
           <t>['6', '6']</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['CLARA MARIANA PEDREIRA CORREIA', 'CLARA MARIANA']</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -978,6 +1038,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['', 'RIC CAINAN PAMPLONA', 'RIC CAINAN PAMPLONA SANTOS']</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1020,6 +1085,11 @@
           <t>['10', '10']</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['VICTORIA LETICIA LANDIM ARRAES SAMPAIO']</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1062,6 +1132,11 @@
           <t>['']</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['', 'ANDERSON BATISTA DA SILVA']</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1104,6 +1179,11 @@
           <t>['8']</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['ANDERSON BATISTA DA SILVA', '']</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1146,6 +1226,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['MARIA GABRIELLY NUNES XAVIER']</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1188,6 +1273,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['', 'ANTONIO GABRIEL MESQUITA FROTA RODRIGUES']</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1230,6 +1320,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['GUILHERME MARINHO LIMA', 'GUILHERME MARINHO']</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1272,6 +1367,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['MARIA CAROLINNE BARBOSA FERREIRA']</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1314,6 +1414,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['FRANCISCO ORLAN DE SOUSA NETO']</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1356,6 +1461,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['PEDRO HENRIQUE BRITO PEREIRA']</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1398,6 +1508,11 @@
           <t>['10', '10']</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['MIRELA DE BARROS MELO WANDERLEY']</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1440,6 +1555,11 @@
           <t>['9', '9']</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['', 'THIALLA ATHINA LIRA SANTIAGO']</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1482,6 +1602,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['JOSE LUIZ MONTEIRO FILHO']</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1524,6 +1649,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['JOAO DANIEL ARAUJO BARROS']</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1566,6 +1696,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['JOSE VINICIUS DE ARAUJO GONCALVES']</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1608,6 +1743,11 @@
           <t>['9']</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['KARINA KETLEN RAMOS LACERDA']</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1650,6 +1790,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['SILVIA TEODORA BARBOSA DA SILVA SOUSA']</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1692,6 +1837,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['', 'LARA GABRIELLE DE ALBUQUERQUE', 'LARA ALBUQUERQUE']</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1734,6 +1884,11 @@
           <t>['8']</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['ETIENE MARIA BEZERRA DA SILVA']</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1776,6 +1931,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['', 'MARIA HELOISA DOS SANTOS SILVA']</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1818,6 +1978,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['LIZ MALTA LUNA']</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1860,6 +2025,11 @@
           <t>['9']</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['ARTHUR VINICIUS XAVIER DOS SANTOS', '']</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1902,6 +2072,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['', 'MARINA TOSCANO', 'MARINA TOSCANO DE ALBUQUERQUE']</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1944,6 +2119,11 @@
           <t>['']</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['', 'MARCUS VINICIUS ANDRADE BOMFIM']</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1986,6 +2166,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['NATHALIA KELLY DE OLIVEIRA SANTOS']</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2028,6 +2213,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['', 'LAVINIA PALMEIRA AYRES DE MAYA GOMES']</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2070,6 +2260,11 @@
           <t>['10', '10']</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['GABRIELY PEREIRA NOGUEIRA']</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2112,6 +2307,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['', 'ANA CLARA DE ARAUJO CIRILO']</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2154,6 +2354,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['LUCAS EMANUEL ROCHA MAMEDE']</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2196,6 +2401,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['JESSICA TAMARA DE OLIVEIRA TOBIAS']</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2238,6 +2448,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['', 'PALOMA DE ALMEIDA LUNA']</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2280,6 +2495,11 @@
           <t>['']</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['', 'PALOMA DE ALMEIDA LUNA']</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2322,6 +2542,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['', 'ANA CRISLEY FERNANDES DE LACERDA']</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2364,6 +2589,11 @@
           <t>['9']</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['', 'VICTORIA RAFAELA BELO BARRETO', 'VICTORIA RAFAELA BELO', 'VICTORIA RAFAELA B BARRETO']</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2406,6 +2636,11 @@
           <t>['']</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['', 'ADDEYMS JOSE PALMEIRA DOS SANTOS']</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2448,6 +2683,11 @@
           <t>['9', '9']</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['', 'ADDEYMS JOSE PALMEIRA DOS SANTOS']</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2490,6 +2730,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['', 'ENALA RIDANA', 'ENALA RIDANA TEIXEIRA', 'ENALA RIDANA TEIXEIRA DA SILVA']</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2532,6 +2777,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['WYLIANE MARQUES SILVA']</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2574,6 +2824,11 @@
           <t>['9']</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['MARIA EDUARDA MELO CAVALCANTE AIRES']</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2616,6 +2871,11 @@
           <t>['10']</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['VITOR JOSE AZEVEDO DE ALBUQUERQUE']</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2658,6 +2918,11 @@
           <t>['9']</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['MARIA SOUZA DE QUEIROZ']</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2672,7 +2937,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2698,33 +2963,38 @@
       <c r="H54" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['NYKOLAS ALBERTO ESTRELLA PACHECO FREIRE', '']</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>11143715489</t>
+          <t xml:space="preserve">11063714451 </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['5']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2734,19 +3004,24 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['', 'NYKOLAS ALBERTO ESTRELLA PACHECO FREIRE']</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>11229057420</t>
+          <t>11143715489</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2756,180 +3031,200 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>['7']</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>['9']</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>['10']</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>['10']</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['9']</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['', 'LAURA SOLANGE SOUSA AMORIM']</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>11248132416</t>
+          <t>11229057420</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['1']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['1']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['GABRIEL HENRIQUE RODRIGUES DE MEDEIROS']</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>11376205440</t>
+          <t>11248132416</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['8', '8']</t>
+          <t>['1']</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['10', '10']</t>
+          <t>['1']</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>['10', '10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['9', '9']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>['9', '9']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['7', '7']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['9', '9']</t>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['', 'VICTOR MATEUS', 'VICTOR MATEUS SILVA SANTOS']</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>11409660494</t>
+          <t>11376205440</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['8', '8']</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10', '10']</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10', '10']</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['5']</t>
+          <t>['9', '9']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['9', '9']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['7', '7']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['5']</t>
+          <t>['9', '9']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['NATALIA MEDEIROS DE MELO']</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>11630750433</t>
+          <t>11409660494</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2939,66 +3234,76 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>['5']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['', 'WELLINGTON DIOGO LEITE DA SILVA']</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>11638329443</t>
+          <t>11630750433</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['5']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['ALEXYA CATHERINE COSTA']</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>11777908400</t>
+          <t>11638329443</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3034,28 +3339,33 @@
       <c r="H62" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['FERNANDA MIRELLY DA SILVA NASCIMENTO']</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>12080702408</t>
+          <t>11777908400</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3065,24 +3375,29 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['MARCELO RAMOS BORTOLETO', 'MARCELO RAMOS', 'MARCELO']</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>12126333426</t>
+          <t>12080702408</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3092,12 +3407,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3107,7 +3422,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3118,13 +3433,18 @@
       <c r="H64" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['SABRINA BARROS', 'SABRINA BEATRIZ SILVA DE BARROS', 'SABRINA BEATRIZ BARROS']</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>12246436400</t>
+          <t>12126333426</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3139,7 +3459,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3149,39 +3469,44 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['SAMARY EFIGENIA CONSTANTE VIEIRA']</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>12360927400</t>
+          <t>12246436400</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3191,7 +3516,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3202,18 +3527,23 @@
       <c r="H66" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['DELIS CAVALCANTE FERREIRA']</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>12422429459</t>
+          <t>12360927400</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3223,7 +3553,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3238,24 +3568,29 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['BRUNO MANGUEIRA DE MELO']</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>12461791481</t>
+          <t>12422429459</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3265,7 +3600,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3275,93 +3610,103 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['ALINE KEZIA DE OLIVEIRA SILVA']</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>12476409499</t>
+          <t>12461791481</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>['7']</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>['10']</t>
-        </is>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['MARIA LUISA RORIZ DE CARVALHO PIRES']</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>12649153490</t>
+          <t>12476409499</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>['7']</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>['9']</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>['']</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>['10']</t>
-        </is>
-      </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>['10']</t>
@@ -3369,14 +3714,19 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['', 'IASMYN PESSOA DIAS ARAUJO', 'IASMYN PESSOA']</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>12649747447</t>
+          <t>12649153490</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3386,7 +3736,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3396,7 +3746,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3411,19 +3761,24 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['', 'JOANNE FEITOSA MENESES']</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>12663908479</t>
+          <t>12649747447</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3433,12 +3788,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3448,160 +3803,180 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['PAULO LUCAS NOGUEIRA MOURA']</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>12927302421</t>
+          <t>12663908479</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['', 'VINICIUS TORRES ALVES NOME SOCIALGAL TORRES ALVES', 'NOME SOCIAL GAL TORRES ALVES VINICIUS TORRES', 'VINICIUS TORRES ALVES NOME SOCIAL GAL TORRES ALVES']</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>12950633447</t>
+          <t xml:space="preserve">12663908479 </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['5']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['', 'VINICIUS TORRES ALVES NOME SOCIAL GAL TORRES ALVES']</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>13255067456</t>
+          <t>12927302421</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['', 'JOSE HIAGO MORAES DA COSTA CRUZ']</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>13468796480</t>
+          <t>12950633447</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3611,39 +3986,44 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['5']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['KEMILLY ALMEIDA TENORIO REIS']</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>13707367460</t>
+          <t>13255067456</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3653,24 +4033,29 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
           <t>['9']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['JOAO DA ROCHA CRUZ JUNIOR']</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>13824638479</t>
+          <t>13468796480</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3706,13 +4091,18 @@
       <c r="H78" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['MICKAELA THAMYRES DE SOUZA MATOS', 'MICKAELA THAMMYRES DE SOUZA MATOS']</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>13900373477</t>
+          <t>13707367460</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3722,96 +4112,106 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['LAYSA MARIA PEREIRA MOTA DE MELO']</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>14182225422</t>
+          <t>13824638479</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['9', '9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>['8', '8']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>['10', '10']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['9', '9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>['9', '9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['10', '10']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['9', '9']</t>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['ANA MARCELA DANTAS SOUSA']</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>14458223429</t>
+          <t>13900373477</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3821,81 +4221,91 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>['5']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['ANDRE VICTORIO SILVA CAMPOS']</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>14475116465</t>
+          <t>14182225422</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['9', '9']</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['5']</t>
+          <t>['8', '8']</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['10', '10']</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['9', '9']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['9', '9']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['10', '10']</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['9', '9']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['LUCAS DA CUNHA MELO']</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>14657853457</t>
+          <t>14458223429</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3905,7 +4315,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['5']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3916,38 +4326,43 @@
       <c r="H83" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['MARIA CLARA SANTOS FLORIANO']</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>14741643409</t>
+          <t>14475116465</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['5']</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3957,24 +4372,29 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['MARIANA RODRIGUES', 'MARIANA RODRIGUES ALMEIDA']</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>16976939466</t>
+          <t>14657853457</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3984,29 +4404,34 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['HELIDA CRISTIANE RANGEL MEDEIROS']</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>37946019807</t>
+          <t>14741643409</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4031,24 +4456,29 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['LAURA BEATRIZ TENORIO LISBOA TEIXEIRA']</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>41492540870</t>
+          <t>16976939466</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4058,12 +4488,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4073,291 +4503,326 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
           <t>['']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['MICHELE CAVALCANTI SOBRAL FERREIRA', '']</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>44681507857</t>
+          <t>37946019807</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>['9', '9']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>['6', '6']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>['8', '8']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['10', '10']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>['9', '9']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['', '']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['10', '10']</t>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['RAFAEL ALEXANDRE CONRADO GOMES']</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>61436942306</t>
+          <t>41492540870</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['', 'ISABELLA MAGALHAES DOS SANTOS']</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>61853304310</t>
+          <t>44681507857</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['9', '9']</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>['5']</t>
+          <t>['6', '6']</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['8', '8']</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10', '10']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['9', '9']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['', '']</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10', '10']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['LETICIA MAYARA ALVES MOURA', '']</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>61953304310</t>
+          <t>61436942306</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['DANIELA KELY ARAUJO BARBOSA']</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>62197604333</t>
+          <t>61853304310</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['5']</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['', 'LARA MARIA MENDES DE ALMEIDA']</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>70259324426</t>
+          <t>61953304310</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['', 'LARA MARIA MENDES DE ALMEIDA']</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>70361759401</t>
+          <t>62197604333</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4367,81 +4832,91 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['VINICIUS ABRAAO SAMPAIO DE LACERDA HENRIQUE']</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>70475844475</t>
+          <t>70259324426</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>['5']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['LUANA CORTEZ SILVA DE SOUZA']</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>70513644482</t>
+          <t>70361759401</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4451,49 +4926,54 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['MARIA LUISA MACIEL MARTINS']</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>70586341498</t>
+          <t>70475844475</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>['7']</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>['8']</t>
-        </is>
-      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4503,29 +4983,34 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['CLECIA SOUZA DE ALBUQUERQUE']</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>70630745471</t>
+          <t>70513644482</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4535,29 +5020,34 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['GABRIEL FERREIRA DA ROCHA GOMES']</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>70855182431</t>
+          <t>70586341498</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4567,7 +5057,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4577,34 +5067,39 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['LUIZ EDUARDO DE QUEIROZ']</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>70922207429</t>
+          <t>70630745471</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4619,39 +5114,44 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['MANOEL CARLOS LEMOS OLIVEIRA', 'MANOEL CARLOS']</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>70964115425</t>
+          <t>70855182431</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4661,24 +5161,29 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['MARILIA GABRIELLA MOURA BARBOSA', '', 'MARILIA MOURA']</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>71143562429</t>
+          <t>70922207429</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4688,12 +5193,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4703,7 +5208,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4714,90 +5219,199 @@
       <c r="H102" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>['', 'GABRIEL WANDERLEY BEZERRA DE MELLO']</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>71536283479</t>
+          <t>70964115425</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
           <t>['7']</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>['8']</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>['9']</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>['10']</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>['7']</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>['5']</t>
-        </is>
-      </c>
       <c r="H103" t="inlineStr">
         <is>
           <t>['10']</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>['NICHOLAS DE MELO LIMA']</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>71143562429</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>['ALEXA RAMOS DE OLIVEIRA']</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>71536283479</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>['VINICIUS DE LIMA', 'VINICIUS LIMA', 'VINICIUS DE LIMA GONCALO DA SILVA']</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
           <t>83993037553</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>['9', '10']</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>['9', '9']</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>['8', '8']</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>['10', '10']</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>['', '']</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['10', '10']</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>['10', '10']</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>['', 'MARCUSFSAXGMAILCOM', 'MARCUS VINICIUS ANDRADE BOMFIM']</t>
         </is>
       </c>
     </row>
